--- a/solver/excel/result/1/高钾.xlsx
+++ b/solver/excel/result/1/高钾.xlsx
@@ -436,72 +436,72 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>二氧化硅(SiO2)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>氧化钠(Na2O)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>氧化钾(K2O)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>氧化钙(CaO)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>氧化镁(MgO)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>氧化铝(Al2O3)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>氧化铁(Fe2O3)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>氧化铜(CuO)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>氧化铅(PbO)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>氧化钡(BaO)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>五氧化二磷(P2O5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>氧化锶(SrO)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>氧化锡(SnO2)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>二氧化硫(SO2)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>氧化铅(PbO)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>氧化锶(SrO)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>氧化钙(CaO)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>氧化锡(SnO2)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>氧化铁(Fe2O3)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>二氧化硅(SiO2)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>氧化钡(BaO)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>氧化钠(Na2O)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>五氧化二磷(P2O5)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>氧化镁(MgO)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>氧化铝(Al2O3)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>氧化铜(CuO)</t>
         </is>
       </c>
     </row>
@@ -510,46 +510,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>94.07093824685026</v>
+        <v>67.75905951623973</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03440493986545934</v>
+        <v>1.162755650491632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5958434995678961</v>
+        <v>10.28666759733919</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8834212984225266</v>
+        <v>5.541647314699883</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2037307064159938</v>
+        <v>1.091688068066482</v>
       </c>
       <c r="G2" t="n">
-        <v>1.954956652049155</v>
+        <v>6.729608836911932</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2658464628647685</v>
+        <v>1.929707610322754</v>
       </c>
       <c r="I2" t="n">
-        <v>1.595849292778938</v>
+        <v>2.450747743951087</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1342921911136453</v>
+        <v>0.5451869611956746</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0998439277480285</v>
+        <v>0.818801560937361</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2890199841207972</v>
+        <v>1.515321478859036</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002145204328278232</v>
+        <v>0.05228361519063392</v>
       </c>
       <c r="N2" t="n">
-        <v>0.009819505255300818</v>
+        <v>0.3945951823073121</v>
       </c>
       <c r="O2" t="n">
-        <v>0.069528350009815</v>
+        <v>0.3249974193755092</v>
       </c>
     </row>
     <row r="3">
@@ -557,46 +557,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>94.07379614720824</v>
+        <v>67.77407670251333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03405619548028289</v>
+        <v>1.151290898922405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.594341655516885</v>
+        <v>10.27580511324248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8812236459479884</v>
+        <v>5.526944620243655</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2026231612484178</v>
+        <v>1.089097736936</v>
       </c>
       <c r="G3" t="n">
-        <v>1.957529729133556</v>
+        <v>6.736879365978024</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2646429998980765</v>
+        <v>1.898532392881102</v>
       </c>
       <c r="I3" t="n">
-        <v>1.595991562720863</v>
+        <v>2.451019082829195</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1368573296121493</v>
+        <v>0.5553877199370215</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09715980006394448</v>
+        <v>0.793416431564602</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2885670627022769</v>
+        <v>1.511979004014555</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002148811549623774</v>
+        <v>0.05236598373623543</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01025821560250327</v>
+        <v>0.4235211913896434</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07050264812195101</v>
+        <v>0.3297057604488701</v>
       </c>
     </row>
     <row r="4">
@@ -604,46 +604,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>94.07568273164149</v>
+        <v>67.78398999069908</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03376833979782684</v>
+        <v>1.141827825028099</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5935566977177587</v>
+        <v>10.27012769846439</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8805622641901474</v>
+        <v>5.522519856084116</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2012010413485204</v>
+        <v>1.08577167714555</v>
       </c>
       <c r="G4" t="n">
-        <v>1.956606112419257</v>
+        <v>6.734269579350196</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2636449770053762</v>
+        <v>1.87267901678827</v>
       </c>
       <c r="I4" t="n">
-        <v>1.594823262749465</v>
+        <v>2.448790887616315</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1383014731929589</v>
+        <v>0.561130630218199</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09617857277536553</v>
+        <v>0.784136477480317</v>
       </c>
       <c r="L4" t="n">
-        <v>0.287870803504506</v>
+        <v>1.506840742146986</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002140854372668511</v>
+        <v>0.05218428679276705</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01053659345385235</v>
+        <v>0.4418758080696275</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07107807077750304</v>
+        <v>0.3324865172726089</v>
       </c>
     </row>
     <row r="5">
@@ -651,46 +651,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>94.07297524332147</v>
+        <v>67.7697631628386</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03428888889918329</v>
+        <v>1.15894054821536</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5954114411259024</v>
+        <v>10.28354262044705</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8832836429007092</v>
+        <v>5.540726374241397</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2032428985392774</v>
+        <v>1.090547181025713</v>
       </c>
       <c r="G5" t="n">
-        <v>1.956450882934551</v>
+        <v>6.733830960356887</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2642796748989814</v>
+        <v>1.889120606924848</v>
       </c>
       <c r="I5" t="n">
-        <v>1.595128950722258</v>
+        <v>2.449373899252271</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1373828321761867</v>
+        <v>0.5574774803444346</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09776302510792961</v>
+        <v>0.7991214305753612</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2880231978440614</v>
+        <v>1.507965383697544</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00215257626522457</v>
+        <v>0.05245194856038579</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01023673039190817</v>
+        <v>0.4221045815449641</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07067286173518507</v>
+        <v>0.3305283256744951</v>
       </c>
     </row>
     <row r="6">
@@ -698,46 +698,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>94.07097463166853</v>
+        <v>67.75925070470859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03415680582820594</v>
+        <v>1.154598400614934</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5945827629103844</v>
+        <v>10.27754898620034</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8817213677729272</v>
+        <v>5.530274469708507</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2082957313723766</v>
+        <v>1.102364766951661</v>
       </c>
       <c r="G6" t="n">
-        <v>1.970032575185971</v>
+        <v>6.772207614083779</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2654666774808658</v>
+        <v>1.919869424809765</v>
       </c>
       <c r="I6" t="n">
-        <v>1.592264077531566</v>
+        <v>2.443909979980434</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1386319226307907</v>
+        <v>0.5624447249516811</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09526704563418287</v>
+        <v>0.7755157123271125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2910814638712002</v>
+        <v>1.530534811517581</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002160599016059791</v>
+        <v>0.052635142840614</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01029489859686839</v>
+        <v>0.4259398547171418</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07264475159117711</v>
+        <v>0.3400575753830432</v>
       </c>
     </row>
     <row r="7">
@@ -745,46 +745,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>94.07011383057774</v>
+        <v>67.75472752030541</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03433966853272866</v>
+        <v>1.160609896621011</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5971821122779402</v>
+        <v>10.29634946761374</v>
       </c>
       <c r="E7" t="n">
-        <v>0.884027725859769</v>
+        <v>5.545704424467215</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2065483080186963</v>
+        <v>1.098277886123969</v>
       </c>
       <c r="G7" t="n">
-        <v>1.967048259417974</v>
+        <v>6.763775082207779</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2645250393793208</v>
+        <v>1.895476673740986</v>
       </c>
       <c r="I7" t="n">
-        <v>1.588537712742382</v>
+        <v>2.436803013971721</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1380525875799971</v>
+        <v>0.5601408894718432</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09811342406487961</v>
+        <v>0.8024353276403181</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2878163116534516</v>
+        <v>1.506438602539693</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002193766962733734</v>
+        <v>0.05339251125979835</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01030150981604636</v>
+        <v>0.4263757600638173</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07040075703991353</v>
+        <v>0.3292133670421802</v>
       </c>
     </row>
   </sheetData>
